--- a/medicine/Enfance/Service_national_d'accueil_téléphonique_pour_l'enfance_en_danger/Service_national_d'accueil_téléphonique_pour_l'enfance_en_danger.xlsx
+++ b/medicine/Enfance/Service_national_d'accueil_téléphonique_pour_l'enfance_en_danger/Service_national_d'accueil_téléphonique_pour_l'enfance_en_danger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Service_national_d%27accueil_t%C3%A9l%C3%A9phonique_pour_l%27enfance_en_danger</t>
+          <t>Service_national_d'accueil_téléphonique_pour_l'enfance_en_danger</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Service national d'accueil téléphonique pour l'enfance en danger (SNATED), également connu sous le nom « 119-Allô enfance en danger »  est un organisme lié à la protection de l'enfance en France, créé par la loi du 10 juillet 1989 relative à la prévention des mauvais traitements et la protection des mineurs.
 Accessible via un numéro Vert national simplifié, le 119 est une ligne d'écoute fonctionnant tous les jours 24 heures sur 24 offrant à toute personne, y compris aux enfants eux-mêmes, un moyen direct pour parler d'une situation d'enfant en danger ou en risque de l'être.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Service_national_d%27accueil_t%C3%A9l%C3%A9phonique_pour_l%27enfance_en_danger</t>
+          <t>Service_national_d'accueil_téléphonique_pour_l'enfance_en_danger</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a 3 missions légales précisées par la loi du 5 mars 2007 :
 Accueillir les appels d'enfants en danger ou en risque de l’être et de toute personne confrontée à ce type de situations
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Service_national_d%27accueil_t%C3%A9l%C3%A9phonique_pour_l%27enfance_en_danger</t>
+          <t>Service_national_d'accueil_téléphonique_pour_l'enfance_en_danger</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme l'Observatoire national de l'enfance en danger, il est géré par le Groupement d'intérêt public Enfance en danger.
 Dans le champ de la téléphonie sociale, Allô Enfance en Danger est en France l'unique service émanant d'une décision législative, ce qui lui confère des obligations légales. Il est financé à parts égales par l'État et les départements (au prorata du nombre d'habitants). Les décisions importantes sont prises par le Conseil d'Administration. Le service est assisté par un comité technique composé de spécialistes de la protection de l'enfance et de la téléphonie sociale.
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Service_national_d%27accueil_t%C3%A9l%C3%A9phonique_pour_l%27enfance_en_danger</t>
+          <t>Service_national_d'accueil_téléphonique_pour_l'enfance_en_danger</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Avant même la ratification de la Convention internationale des droits de l'enfant, le Parlement adopte la loi du 10 juillet 1989 afin de préciser les modalités de signalement de ces mauvais traitements et la mission des Conseils départementaux dans le domaine de l'enfance en danger.
 La loi confirme le rôle du président du Conseil départemental comme principal animateur de l'action sociale en faveur de l'enfance et fait obligation aux départements de mettre en place des dispositifs chargés de recueillir les informations relatives aux mineurs maltraités.
